--- a/Pc B Data.xlsx
+++ b/Pc B Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jto208/Documents/DiscProj/Prochl/Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/j_t_ono_exeter_ac_uk/Documents/Pc paper/prochl_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BC89F1-1536-6C4C-BEC6-281876794FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F9BC89F1-1536-6C4C-BEC6-281876794FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27599E74-A3C1-DC4B-BD4C-4FB161DA4325}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25780" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34820" yWindow="-15120" windowWidth="25780" windowHeight="16320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pc B TPC" sheetId="2" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -492,7 +492,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,11 +774,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H413"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -11493,8 +11495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M292"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27771,7 +27773,7 @@
       <c r="G266" t="s">
         <v>45</v>
       </c>
-      <c r="H266" s="7">
+      <c r="H266" s="2">
         <v>136034</v>
       </c>
       <c r="I266">
